--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F9-Lrp1.xlsx
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5867746666666668</v>
+        <v>0.249426</v>
       </c>
       <c r="H2">
-        <v>1.760324</v>
+        <v>0.748278</v>
       </c>
       <c r="I2">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="J2">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>1.026298817508</v>
+        <v>2.287921842648</v>
       </c>
       <c r="R2">
-        <v>9.236689357572001</v>
+        <v>20.591296583832</v>
       </c>
       <c r="S2">
-        <v>0.001916172663302442</v>
+        <v>0.004815313380460561</v>
       </c>
       <c r="T2">
-        <v>0.001916172663302443</v>
+        <v>0.00481531338046056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5867746666666668</v>
+        <v>0.249426</v>
       </c>
       <c r="H3">
-        <v>1.760324</v>
+        <v>0.748278</v>
       </c>
       <c r="I3">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="J3">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>83.92963912864892</v>
+        <v>35.67678592572</v>
       </c>
       <c r="R3">
-        <v>755.3667521578402</v>
+        <v>321.09107333148</v>
       </c>
       <c r="S3">
-        <v>0.1567025873903459</v>
+        <v>0.07508775056805007</v>
       </c>
       <c r="T3">
-        <v>0.156702587390346</v>
+        <v>0.07508775056805006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5867746666666668</v>
+        <v>0.249426</v>
       </c>
       <c r="H4">
-        <v>1.760324</v>
+        <v>0.748278</v>
       </c>
       <c r="I4">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="J4">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>77.92649929302935</v>
+        <v>42.212035545318</v>
       </c>
       <c r="R4">
-        <v>701.3384936372642</v>
+        <v>379.9083199078621</v>
       </c>
       <c r="S4">
-        <v>0.1454942996570255</v>
+        <v>0.08884227414979884</v>
       </c>
       <c r="T4">
-        <v>0.1454942996570255</v>
+        <v>0.08884227414979884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5867746666666668</v>
+        <v>0.249426</v>
       </c>
       <c r="H5">
-        <v>1.760324</v>
+        <v>0.748278</v>
       </c>
       <c r="I5">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="J5">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>13.49741023096178</v>
+        <v>4.028308635474001</v>
       </c>
       <c r="R5">
-        <v>121.476692078656</v>
+        <v>36.254777719266</v>
       </c>
       <c r="S5">
-        <v>0.02520062195214023</v>
+        <v>0.008478247862948138</v>
       </c>
       <c r="T5">
-        <v>0.02520062195214023</v>
+        <v>0.008478247862948138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5867746666666668</v>
+        <v>0.249426</v>
       </c>
       <c r="H6">
-        <v>1.760324</v>
+        <v>0.748278</v>
       </c>
       <c r="I6">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="J6">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>31.44318991779778</v>
+        <v>13.654737324918</v>
       </c>
       <c r="R6">
-        <v>282.98870926018</v>
+        <v>122.892635924262</v>
       </c>
       <c r="S6">
-        <v>0.05870666509565712</v>
+        <v>0.02873867372639437</v>
       </c>
       <c r="T6">
-        <v>0.05870666509565713</v>
+        <v>0.02873867372639437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5867746666666668</v>
+        <v>0.249426</v>
       </c>
       <c r="H7">
-        <v>1.760324</v>
+        <v>0.748278</v>
       </c>
       <c r="I7">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="J7">
-        <v>0.5257388407083505</v>
+        <v>0.3330492191161541</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>73.76179098920537</v>
+        <v>60.383407562226</v>
       </c>
       <c r="R7">
-        <v>663.8561189028482</v>
+        <v>543.450668060034</v>
       </c>
       <c r="S7">
-        <v>0.1377184939498792</v>
+        <v>0.1270869594285021</v>
       </c>
       <c r="T7">
-        <v>0.1377184939498792</v>
+        <v>0.1270869594285021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5293206666666667</v>
+        <v>0.4994903333333333</v>
       </c>
       <c r="H8">
-        <v>1.587962</v>
+        <v>1.498471</v>
       </c>
       <c r="I8">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="J8">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>0.925808841354</v>
+        <v>4.581698956102667</v>
       </c>
       <c r="R8">
-        <v>8.332279572186</v>
+        <v>41.235290604924</v>
       </c>
       <c r="S8">
-        <v>0.001728550752454135</v>
+        <v>0.009642950155600079</v>
       </c>
       <c r="T8">
-        <v>0.001728550752454135</v>
+        <v>0.009642950155600077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5293206666666667</v>
+        <v>0.4994903333333333</v>
       </c>
       <c r="H9">
-        <v>1.587962</v>
+        <v>1.498471</v>
       </c>
       <c r="I9">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="J9">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
-        <v>75.71167444743557</v>
+        <v>71.44487621298445</v>
       </c>
       <c r="R9">
-        <v>681.40507002692</v>
+        <v>643.00388591686</v>
       </c>
       <c r="S9">
-        <v>0.1413590646253465</v>
+        <v>0.1503676664040056</v>
       </c>
       <c r="T9">
-        <v>0.1413590646253465</v>
+        <v>0.1503676664040056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5293206666666667</v>
+        <v>0.4994903333333333</v>
       </c>
       <c r="H10">
-        <v>1.587962</v>
+        <v>1.498471</v>
       </c>
       <c r="I10">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="J10">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>70.29633162438134</v>
+        <v>84.5321005236399</v>
       </c>
       <c r="R10">
-        <v>632.6669846194321</v>
+        <v>760.7889047127591</v>
       </c>
       <c r="S10">
-        <v>0.1312482355929758</v>
+        <v>0.1779119142718658</v>
       </c>
       <c r="T10">
-        <v>0.1312482355929758</v>
+        <v>0.1779119142718658</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5293206666666667</v>
+        <v>0.4994903333333333</v>
       </c>
       <c r="H11">
-        <v>1.587962</v>
+        <v>1.498471</v>
       </c>
       <c r="I11">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="J11">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>12.17581226250311</v>
+        <v>8.066926555781889</v>
       </c>
       <c r="R11">
-        <v>109.582310362528</v>
+        <v>72.602339002037</v>
       </c>
       <c r="S11">
-        <v>0.0227331048354533</v>
+        <v>0.01697819333648692</v>
       </c>
       <c r="T11">
-        <v>0.0227331048354533</v>
+        <v>0.01697819333648692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5293206666666667</v>
+        <v>0.4994903333333333</v>
       </c>
       <c r="H12">
-        <v>1.587962</v>
+        <v>1.498471</v>
       </c>
       <c r="I12">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="J12">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>28.36443220012111</v>
+        <v>27.34441998028434</v>
       </c>
       <c r="R12">
-        <v>255.27988980109</v>
+        <v>246.099779822559</v>
       </c>
       <c r="S12">
-        <v>0.05295840613354692</v>
+        <v>0.05755089573322202</v>
       </c>
       <c r="T12">
-        <v>0.05295840613354693</v>
+        <v>0.05755089573322202</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5293206666666667</v>
+        <v>0.4994903333333333</v>
       </c>
       <c r="H13">
-        <v>1.587962</v>
+        <v>1.498471</v>
       </c>
       <c r="I13">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="J13">
-        <v>0.4742611592916495</v>
+        <v>0.666950780883846</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>66.53941043966935</v>
+        <v>120.9213489013126</v>
       </c>
       <c r="R13">
-        <v>598.8546939570241</v>
+        <v>1088.292140111813</v>
       </c>
       <c r="S13">
-        <v>0.1242337973518728</v>
+        <v>0.2544991609826655</v>
       </c>
       <c r="T13">
-        <v>0.1242337973518728</v>
+        <v>0.2544991609826655</v>
       </c>
     </row>
   </sheetData>
